--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">Слив</t>
   </si>
   <si>
+    <t xml:space="preserve">Kод</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта "Unagrande", 50%, 0,25 кг, пл/с</t>
   </si>
   <si>
@@ -91,91 +94,142 @@
     <t xml:space="preserve">Unagrande</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094030</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта "Unagrande", 50%, 0,5 кг, пл/с</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094029</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта "Aventino", 45%, 0,2 кг, п/с</t>
   </si>
   <si>
     <t xml:space="preserve">Aventino</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096235</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта "Pretto", 45%, 0,5 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Pretto</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000086888</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта "Pretto", 45%, 0,2 кг, пл/с</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000088471</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта "Фермерская коллекция", 45%, 0,2 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Фермерская коллекция</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095392</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта "ВкусВилл", 45%, 0,18 кг, пл/с (6 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">ВкусВилл</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000093950</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта "Красная птица", 30%,  0,25 кг, пл/с (6 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Красная птица</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095119</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта с ванилью "Красная птица", 30%, 0,2 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Ваниль</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096627</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта шоколадно-ореховая "Красная птица", 35%, 0,2 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Шоколад-орех</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096629</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта "SPAR", 30%, 0,2 кг, пл/с (6 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">SPAR</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000092930</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта с ванилью "Бонджорно", 30%, 0,2 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Бонджорно</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095930</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта с шоколадом "Бонджорно", 30%, 0,2 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Шоколад</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095931</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта шоколадно-ореховая "Бонджорно", 35%, 0,2 кг, пл/с</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095932</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта "Глобус", 45%, 0,25 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Глобус</t>
   </si>
   <si>
+    <t xml:space="preserve">326635016</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта с медом "Бонджорно", 30%, 0,2 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Мед</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000097528</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта "Metro Chef" 45%, 0,5 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Metro Chef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097279</t>
   </si>
 </sst>
 </file>
@@ -412,8 +466,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X19" activeCellId="0" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,26 +544,28 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.25</v>
@@ -553,25 +609,28 @@
       <c r="U2" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V2" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.5</v>
@@ -615,25 +674,28 @@
       <c r="U3" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.2</v>
@@ -677,25 +739,28 @@
       <c r="U4" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V4" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.5</v>
@@ -739,25 +804,28 @@
       <c r="U5" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.2</v>
@@ -801,25 +869,28 @@
       <c r="U6" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V6" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.2</v>
@@ -863,25 +934,28 @@
       <c r="U7" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V7" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.18</v>
@@ -925,25 +999,28 @@
       <c r="U8" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V8" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0.25</v>
@@ -987,28 +1064,31 @@
       <c r="U9" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V9" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.2</v>
@@ -1052,28 +1132,31 @@
       <c r="U10" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V10" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.2</v>
@@ -1117,25 +1200,28 @@
       <c r="U11" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V11" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.2</v>
@@ -1179,28 +1265,31 @@
       <c r="U12" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V12" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.2</v>
@@ -1244,28 +1333,31 @@
       <c r="U13" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V13" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.2</v>
@@ -1309,28 +1401,31 @@
       <c r="U14" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V14" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2</v>
@@ -1374,25 +1469,28 @@
       <c r="U15" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V15" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.25</v>
@@ -1436,28 +1534,31 @@
       <c r="U16" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="V16" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.2</v>
@@ -1500,6 +1601,9 @@
       </c>
       <c r="U17" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,19 +1611,19 @@
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.5</v>
@@ -1562,6 +1666,9 @@
       </c>
       <c r="U18" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000097279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта шоколадно-ореховая "Aventino", 35%, 0,2 кг, п/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097285</t>
   </si>
 </sst>
 </file>
@@ -466,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X19" activeCellId="0" sqref="X19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S24" activeCellId="0" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1606,7 +1612,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>21</v>
       </c>
@@ -1669,6 +1675,74 @@
       </c>
       <c r="V18" s="0" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -239,7 +239,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -270,39 +270,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFADD58A"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -346,45 +320,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -396,66 +338,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFADD58A"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -464,26 +346,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1048576"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X19" activeCellId="0" sqref="X19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="14" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,11 +422,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -564,13 +438,13 @@
       <c r="F2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J2" s="0" t="n">
@@ -613,11 +487,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -629,13 +503,13 @@
       <c r="F3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J3" s="0" t="n">
@@ -678,11 +552,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -694,13 +568,13 @@
       <c r="F4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="0" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="0" t="n">
@@ -743,11 +617,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -765,7 +639,7 @@
       <c r="H5" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="0" t="n">
@@ -808,11 +682,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -830,7 +704,7 @@
       <c r="H6" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="0" t="n">
@@ -873,11 +747,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -889,13 +763,13 @@
       <c r="F7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="0" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="0" t="n">
@@ -938,11 +812,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -954,7 +828,7 @@
       <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="0" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="0" t="n">
@@ -1003,11 +877,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -1019,7 +893,7 @@
       <c r="F9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="0" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="0" t="n">
@@ -1068,11 +942,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -1087,13 +961,13 @@
       <c r="F10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="0" t="s">
         <v>42</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="0" t="n">
@@ -1136,11 +1010,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -1155,13 +1029,13 @@
       <c r="F11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="0" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="0" t="n">
@@ -1204,11 +1078,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -1220,7 +1094,7 @@
       <c r="F12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="0" t="s">
         <v>51</v>
       </c>
       <c r="H12" s="0" t="n">
@@ -1269,11 +1143,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -1288,13 +1162,13 @@
       <c r="F13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="0" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="0" t="n">
@@ -1337,11 +1211,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -1356,13 +1230,13 @@
       <c r="F14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="0" t="s">
         <v>54</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="0" t="n">
@@ -1405,11 +1279,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -1424,13 +1298,13 @@
       <c r="F15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="0" t="s">
         <v>54</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="0" t="n">
@@ -1473,11 +1347,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -1489,13 +1363,13 @@
       <c r="F16" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="0" t="s">
         <v>62</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="0" t="n">
@@ -1538,11 +1412,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -1606,11 +1480,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -1622,7 +1496,7 @@
       <c r="F18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H18" s="0" t="n">
@@ -1671,11 +1545,6 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -236,6 +236,15 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000097285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта с вишней "Бонджорно", 30%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вишня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098377</t>
   </si>
 </sst>
 </file>
@@ -472,8 +481,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S24" activeCellId="0" sqref="S24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -554,7 +563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -619,7 +628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -684,7 +693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -749,9 +758,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -814,9 +823,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
@@ -879,9 +888,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>35</v>
@@ -944,9 +953,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>38</v>
@@ -1009,9 +1018,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>41</v>
@@ -1074,9 +1083,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>44</v>
@@ -1142,9 +1151,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>47</v>
@@ -1210,9 +1219,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>50</v>
@@ -1275,9 +1284,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>53</v>
@@ -1343,9 +1352,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>56</v>
@@ -1411,9 +1420,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>59</v>
@@ -1479,9 +1488,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>61</v>
@@ -1544,9 +1553,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>64</v>
@@ -1614,7 +1623,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>67</v>
@@ -1679,7 +1688,7 @@
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>70</v>
@@ -1743,6 +1752,74 @@
       </c>
       <c r="V19" s="6" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="N20" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="R20" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -482,7 +482,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
+      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>3</v>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -245,6 +245,18 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000098377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "Красная птица", 25%, 0,25 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "SPAR", 25%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098818</t>
   </si>
 </sst>
 </file>
@@ -254,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -298,6 +310,18 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -361,7 +385,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -399,6 +423,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -482,7 +514,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1822,6 +1854,136 @@
         <v>74</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000098818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "ВкусВилл", 45%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098694</t>
   </si>
 </sst>
 </file>
@@ -266,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -308,6 +314,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -385,7 +398,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -431,6 +444,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,8 +530,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U27" activeCellId="0" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1870,7 +1887,7 @@
       <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H21" s="0" t="n">
@@ -1915,11 +1932,11 @@
       <c r="U21" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V21" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
@@ -1935,7 +1952,7 @@
       <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H22" s="0" t="n">
@@ -1980,8 +1997,73 @@
       <c r="U22" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="V22" s="10" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000098694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта шоколадно-ореховая "ВкусВилл", 35%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098951</t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -325,16 +331,22 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -398,7 +410,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,6 +461,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -530,8 +546,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U27" activeCellId="0" sqref="U27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U41" activeCellId="0" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2001,7 +2017,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
@@ -2017,7 +2033,7 @@
       <c r="F23" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="0" t="n">
@@ -2062,8 +2078,76 @@
       <c r="U23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V23" s="12" t="s">
+      <c r="V23" s="10" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N10" t="n">
         <v>30</v>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N13" t="n">
         <v>30</v>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Вкусовая добавка</t>
   </si>
   <si>
+    <t xml:space="preserve">Вначале</t>
+  </si>
+  <si>
     <t xml:space="preserve">Название форм фактора</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">Рикотта "Unagrande", 50%, 0,25 кг, пл/с</t>
   </si>
   <si>
+    <t xml:space="preserve">Нет</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта</t>
   </si>
   <si>
@@ -137,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">Рикотта "Красная птица", 30%,  0,25 кг, пл/с (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да</t>
   </si>
   <si>
     <t xml:space="preserve">Красная птица</t>
@@ -296,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -326,12 +335,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -383,7 +386,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,10 +400,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,18 +420,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1048576"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,70 +497,76 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J2" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V2" s="0" t="s">
-        <v>24</v>
+      <c r="V2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,64 +574,67 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J3" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>26</v>
+      <c r="V3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,64 +642,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J4" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V4" s="0" t="s">
-        <v>29</v>
+      <c r="V4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,64 +710,67 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J5" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V5" s="0" t="s">
-        <v>32</v>
+      <c r="V5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,64 +778,67 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J6" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N6" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V6" s="0" t="s">
-        <v>34</v>
+      <c r="V6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,64 +846,67 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J7" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N7" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V7" s="0" t="s">
-        <v>37</v>
+      <c r="V7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,64 +914,67 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J8" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="N8" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V8" s="0" t="s">
-        <v>40</v>
+      <c r="V8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,67 +982,70 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J9" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="O9" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P9" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V9" s="0" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,67 +1053,70 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>350</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P10" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,67 +1124,70 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="O11" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P11" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,67 +1195,70 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J12" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="O12" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P12" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V12" s="0" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,67 +1266,70 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="O13" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>350</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P13" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,64 +1337,67 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J14" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N14" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V14" s="0" t="s">
-        <v>57</v>
+      <c r="V14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,67 +1405,70 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J15" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="O15" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P15" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,64 +1476,67 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J16" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N16" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V16" s="0" t="s">
-        <v>63</v>
+      <c r="V16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,67 +1544,70 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="O17" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>350</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P17" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V17" s="0" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1566,67 +1615,70 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J18" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="O18" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P18" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V18" s="0" t="s">
-        <v>68</v>
+        <v>15</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,64 +1686,67 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>25</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J19" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="N19" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O19" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V19" s="0" t="s">
-        <v>70</v>
+      <c r="V19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,64 +1754,67 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>25</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J20" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="N20" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O20" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V20" s="0" t="s">
-        <v>73</v>
+      <c r="V20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,64 +1822,67 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J21" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N21" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O21" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T21" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U21" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V21" s="0" t="s">
-        <v>76</v>
+      <c r="V21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,132 +1890,138 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="O22" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>350</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P22" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V22" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>25</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J23" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="N23" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O23" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>80</v>
+      <c r="V23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,64 +2029,67 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J24" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N24" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O24" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>82</v>
+      <c r="V24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,206 +2097,214 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J25" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="O25" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P25" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J26" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="O26" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P26" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T26" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J27" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="O27" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P27" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T27" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>15</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000094994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "Pretto", 25%, 0,5 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00006857</t>
   </si>
 </sst>
 </file>
@@ -305,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -335,6 +341,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,7 +404,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -400,6 +418,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,10 +446,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1964,7 +1990,7 @@
         <v>82</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>23</v>
@@ -2303,6 +2329,74 @@
       </c>
       <c r="W27" s="3" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -311,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -347,6 +347,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,7 +404,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -412,6 +418,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -435,7 +445,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I41" activeCellId="0" sqref="I41"/>
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1871,8 +1881,8 @@
       <c r="K23" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L23" s="3" t="n">
-        <v>359</v>
+      <c r="L23" s="4" t="n">
+        <v>350</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>1500</v>
@@ -1936,8 +1946,8 @@
       <c r="K24" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L24" s="3" t="n">
-        <v>359</v>
+      <c r="L24" s="4" t="n">
+        <v>350</v>
       </c>
       <c r="M24" s="3" t="n">
         <v>1500</v>
@@ -1998,8 +2008,8 @@
       <c r="K25" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L25" s="3" t="n">
-        <v>359</v>
+      <c r="L25" s="4" t="n">
+        <v>350</v>
       </c>
       <c r="M25" s="3" t="n">
         <v>1500</v>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Перекачивание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внесение ингредиентов</t>
   </si>
   <si>
     <t xml:space="preserve">Kод</t>
@@ -311,7 +314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -347,12 +350,6 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -404,7 +401,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -418,10 +415,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,16 +435,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -511,8 +501,11 @@
       <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,19 +513,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>0.25</v>
@@ -573,8 +566,11 @@
       <c r="T2" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>23</v>
+      <c r="U2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,19 +578,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>0.5</v>
@@ -635,8 +631,11 @@
       <c r="T3" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>25</v>
+      <c r="U3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,19 +643,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>0.2</v>
@@ -697,8 +696,11 @@
       <c r="T4" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>28</v>
+      <c r="U4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,19 +708,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>0.5</v>
@@ -759,8 +761,11 @@
       <c r="T5" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>31</v>
+      <c r="U5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,19 +773,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="n">
         <v>0.2</v>
@@ -821,8 +826,11 @@
       <c r="T6" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>33</v>
+      <c r="U6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,19 +838,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3" t="n">
         <v>0.2</v>
@@ -883,8 +891,11 @@
       <c r="T7" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>36</v>
+      <c r="U7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,22 +903,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>0.2</v>
@@ -948,8 +959,11 @@
       <c r="T8" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>40</v>
+      <c r="U8" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,22 +971,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3" t="n">
         <v>0.2</v>
@@ -1013,8 +1027,11 @@
       <c r="T9" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>43</v>
+      <c r="U9" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,22 +1039,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>0.2</v>
@@ -1078,8 +1095,11 @@
       <c r="T10" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>46</v>
+      <c r="U10" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,22 +1107,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3" t="n">
         <v>0.2</v>
@@ -1143,8 +1163,11 @@
       <c r="T11" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U11" s="3" t="s">
-        <v>49</v>
+      <c r="U11" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,22 +1175,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3" t="n">
         <v>0.2</v>
@@ -1208,8 +1231,11 @@
       <c r="T12" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>51</v>
+      <c r="U12" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,22 +1243,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="3" t="n">
         <v>0.2</v>
@@ -1273,8 +1299,11 @@
       <c r="T13" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U13" s="3" t="s">
-        <v>54</v>
+      <c r="U13" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,19 +1311,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>45</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H14" s="3" t="n">
         <v>0.5</v>
@@ -1335,8 +1364,11 @@
       <c r="T14" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>57</v>
+      <c r="U14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,22 +1376,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>0.2</v>
@@ -1400,8 +1432,11 @@
       <c r="T15" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>59</v>
+      <c r="U15" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,22 +1444,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3" t="n">
         <v>0.2</v>
@@ -1465,8 +1500,11 @@
       <c r="T16" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U16" s="3" t="s">
-        <v>62</v>
+      <c r="U16" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,19 +1512,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>0.25</v>
@@ -1527,8 +1565,11 @@
       <c r="T17" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>64</v>
+      <c r="U17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,19 +1577,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H18" s="3" t="n">
         <v>0.2</v>
@@ -1589,8 +1630,11 @@
       <c r="T18" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>67</v>
+      <c r="U18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,19 +1642,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>45</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" s="3" t="n">
         <v>0.2</v>
@@ -1651,8 +1695,11 @@
       <c r="T19" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U19" s="3" t="s">
-        <v>70</v>
+      <c r="U19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,22 +1707,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>35</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" s="3" t="n">
         <v>0.2</v>
@@ -1716,8 +1763,11 @@
       <c r="T20" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>72</v>
+      <c r="U20" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,19 +1775,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>30</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H21" s="3" t="n">
         <v>0.2</v>
@@ -1778,8 +1828,11 @@
       <c r="T21" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>74</v>
+      <c r="U21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,22 +1840,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H22" s="3" t="n">
         <v>0.2</v>
@@ -1843,8 +1896,11 @@
       <c r="T22" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>76</v>
+      <c r="U22" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,22 +1908,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>0.18</v>
@@ -1881,7 +1937,7 @@
       <c r="K23" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="3" t="n">
         <v>350</v>
       </c>
       <c r="M23" s="3" t="n">
@@ -1908,8 +1964,11 @@
       <c r="T23" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>78</v>
+      <c r="U23" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,22 +1976,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="3" t="n">
         <v>0.14</v>
@@ -1946,7 +2005,7 @@
       <c r="K24" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="3" t="n">
         <v>350</v>
       </c>
       <c r="M24" s="3" t="n">
@@ -1973,8 +2032,11 @@
       <c r="T24" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>80</v>
+      <c r="U24" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,19 +2044,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>25</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25" s="3" t="n">
         <v>0.5</v>
@@ -2008,7 +2070,7 @@
       <c r="K25" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="3" t="n">
         <v>350</v>
       </c>
       <c r="M25" s="3" t="n">
@@ -2035,8 +2097,11 @@
       <c r="T25" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U25" s="3" t="s">
-        <v>82</v>
+      <c r="U25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,19 +2109,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>50</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>0.2</v>
@@ -2097,8 +2162,11 @@
       <c r="T26" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>84</v>
+      <c r="U26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,19 +2174,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>45</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27" s="3" t="n">
         <v>2.5</v>
@@ -2159,8 +2227,11 @@
       <c r="T27" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>86</v>
+      <c r="U27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,19 +2239,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>45</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" s="3" t="n">
         <v>0.2</v>
@@ -2221,8 +2292,11 @@
       <c r="T28" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U28" s="3" t="s">
-        <v>89</v>
+      <c r="U28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2230,22 +2304,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>0.2</v>
@@ -2286,8 +2360,11 @@
       <c r="T29" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>91</v>
+      <c r="U29" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,19 +2372,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>25</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="3" t="n">
         <v>1.4</v>
@@ -2348,8 +2425,11 @@
       <c r="T30" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="U30" s="3" t="s">
-        <v>93</v>
+      <c r="U30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
+      <selection pane="topLeft" activeCell="U9" activeCellId="0" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -540,10 +540,10 @@
         <v>1000</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>2000</v>
+        <v>960</v>
       </c>
       <c r="N2" s="3" t="n">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>1000</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>2000</v>
+        <v>1560</v>
       </c>
       <c r="N3" s="3" t="n">
         <v>20</v>
@@ -670,10 +670,10 @@
         <v>900</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>20</v>
@@ -735,10 +735,10 @@
         <v>900</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="N5" s="3" t="n">
         <v>20</v>
@@ -800,10 +800,10 @@
         <v>900</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N6" s="3" t="n">
         <v>20</v>
@@ -865,10 +865,10 @@
         <v>900</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N7" s="3" t="n">
         <v>20</v>
@@ -933,10 +933,10 @@
         <v>700</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N8" s="3" t="n">
         <v>20</v>
@@ -960,7 +960,7 @@
         <v>30</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>41</v>
@@ -1001,10 +1001,10 @@
         <v>700</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N9" s="3" t="n">
         <v>20</v>
@@ -1028,7 +1028,7 @@
         <v>30</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>44</v>
@@ -1069,10 +1069,10 @@
         <v>700</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N10" s="3" t="n">
         <v>20</v>
@@ -1096,7 +1096,7 @@
         <v>30</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>47</v>
@@ -1137,10 +1137,10 @@
         <v>700</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N11" s="3" t="n">
         <v>20</v>
@@ -1164,7 +1164,7 @@
         <v>30</v>
       </c>
       <c r="U11" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>50</v>
@@ -1205,10 +1205,10 @@
         <v>700</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N12" s="3" t="n">
         <v>20</v>
@@ -1232,7 +1232,7 @@
         <v>30</v>
       </c>
       <c r="U12" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>52</v>
@@ -1273,10 +1273,10 @@
         <v>700</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N13" s="3" t="n">
         <v>20</v>
@@ -1300,7 +1300,7 @@
         <v>30</v>
       </c>
       <c r="U13" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V13" s="3" t="s">
         <v>55</v>
@@ -1338,10 +1338,10 @@
         <v>900</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="N14" s="3" t="n">
         <v>20</v>
@@ -1406,10 +1406,10 @@
         <v>700</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N15" s="3" t="n">
         <v>20</v>
@@ -1433,7 +1433,7 @@
         <v>30</v>
       </c>
       <c r="U15" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>60</v>
@@ -1474,10 +1474,10 @@
         <v>700</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N16" s="3" t="n">
         <v>20</v>
@@ -1501,7 +1501,7 @@
         <v>30</v>
       </c>
       <c r="U16" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V16" s="3" t="s">
         <v>63</v>
@@ -1539,10 +1539,10 @@
         <v>700</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>1500</v>
+        <v>960</v>
       </c>
       <c r="N17" s="3" t="n">
         <v>20</v>
@@ -1604,10 +1604,10 @@
         <v>700</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N18" s="3" t="n">
         <v>20</v>
@@ -1669,10 +1669,10 @@
         <v>900</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N19" s="3" t="n">
         <v>20</v>
@@ -1737,10 +1737,10 @@
         <v>700</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N20" s="3" t="n">
         <v>20</v>
@@ -1764,7 +1764,7 @@
         <v>30</v>
       </c>
       <c r="U20" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>73</v>
@@ -1802,10 +1802,10 @@
         <v>700</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N21" s="3" t="n">
         <v>20</v>
@@ -1870,10 +1870,10 @@
         <v>700</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N22" s="3" t="n">
         <v>20</v>
@@ -1897,7 +1897,7 @@
         <v>30</v>
       </c>
       <c r="U22" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>77</v>
@@ -1938,10 +1938,10 @@
         <v>700</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N23" s="3" t="n">
         <v>20</v>
@@ -1965,7 +1965,7 @@
         <v>30</v>
       </c>
       <c r="U23" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>79</v>
@@ -2006,10 +2006,10 @@
         <v>700</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N24" s="3" t="n">
         <v>20</v>
@@ -2033,7 +2033,7 @@
         <v>30</v>
       </c>
       <c r="U24" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>81</v>
@@ -2071,10 +2071,10 @@
         <v>700</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="N25" s="3" t="n">
         <v>20</v>
@@ -2136,10 +2136,10 @@
         <v>1000</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>2000</v>
+        <v>768</v>
       </c>
       <c r="N26" s="3" t="n">
         <v>20</v>
@@ -2201,10 +2201,10 @@
         <v>900</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="N27" s="3" t="n">
         <v>20</v>
@@ -2266,10 +2266,10 @@
         <v>900</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N28" s="3" t="n">
         <v>20</v>
@@ -2334,10 +2334,10 @@
         <v>700</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="N29" s="3" t="n">
         <v>20</v>
@@ -2361,7 +2361,7 @@
         <v>30</v>
       </c>
       <c r="U29" s="3" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>92</v>
@@ -2399,10 +2399,10 @@
         <v>700</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="N30" s="3" t="n">
         <v>20</v>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U9" activeCellId="0" sqref="U9"/>
+      <selection pane="topLeft" activeCell="R31" activeCellId="0" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S2" s="3" t="n">
         <v>15</v>
@@ -623,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S3" s="3" t="n">
         <v>15</v>
@@ -688,7 +688,7 @@
         <v>15</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S4" s="3" t="n">
         <v>15</v>
@@ -753,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S5" s="3" t="n">
         <v>15</v>
@@ -818,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S6" s="3" t="n">
         <v>15</v>
@@ -883,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S7" s="3" t="n">
         <v>15</v>
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S8" s="3" t="n">
         <v>15</v>
@@ -1019,7 +1019,7 @@
         <v>15</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S9" s="3" t="n">
         <v>15</v>
@@ -1087,7 +1087,7 @@
         <v>15</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S10" s="3" t="n">
         <v>15</v>
@@ -1155,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S11" s="3" t="n">
         <v>15</v>
@@ -1223,7 +1223,7 @@
         <v>15</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S12" s="3" t="n">
         <v>15</v>
@@ -1291,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S13" s="3" t="n">
         <v>15</v>
@@ -1356,7 +1356,7 @@
         <v>15</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S14" s="3" t="n">
         <v>15</v>
@@ -1424,7 +1424,7 @@
         <v>15</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S15" s="3" t="n">
         <v>15</v>
@@ -1492,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S16" s="3" t="n">
         <v>15</v>
@@ -1557,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S17" s="3" t="n">
         <v>15</v>
@@ -1622,7 +1622,7 @@
         <v>15</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S18" s="3" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         <v>15</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S19" s="3" t="n">
         <v>15</v>
@@ -1755,7 +1755,7 @@
         <v>15</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S20" s="3" t="n">
         <v>15</v>
@@ -1820,7 +1820,7 @@
         <v>15</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S21" s="3" t="n">
         <v>15</v>
@@ -1888,7 +1888,7 @@
         <v>15</v>
       </c>
       <c r="R22" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S22" s="3" t="n">
         <v>15</v>
@@ -1956,7 +1956,7 @@
         <v>15</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S23" s="3" t="n">
         <v>15</v>
@@ -2024,7 +2024,7 @@
         <v>15</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S24" s="3" t="n">
         <v>15</v>
@@ -2089,7 +2089,7 @@
         <v>15</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S25" s="3" t="n">
         <v>15</v>
@@ -2154,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S26" s="3" t="n">
         <v>15</v>
@@ -2219,7 +2219,7 @@
         <v>15</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S27" s="3" t="n">
         <v>15</v>
@@ -2284,7 +2284,7 @@
         <v>15</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S28" s="3" t="n">
         <v>15</v>
@@ -2352,7 +2352,7 @@
         <v>15</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S29" s="3" t="n">
         <v>15</v>
@@ -2417,7 +2417,7 @@
         <v>15</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S30" s="3" t="n">
         <v>15</v>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R31" activeCellId="0" sqref="R31"/>
+      <selection pane="topLeft" activeCell="T7" activeCellId="0" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1563,7 +1563,7 @@
         <v>15</v>
       </c>
       <c r="T17" s="3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U17" s="3" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>15</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U18" s="3" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>15</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U25" s="3" t="n">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>15</v>
       </c>
       <c r="T30" s="3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U30" s="3" t="n">
         <v>0</v>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">Н0000094994</t>
   </si>
   <si>
-    <t xml:space="preserve">Сыр мягкий Рикотта массовой долей жира в сухом веществе 25%</t>
+    <t xml:space="preserve">Сыр мягкий Рикотта массовой долей жира в сухом веществе 25%, 0,5 кг</t>
   </si>
   <si>
     <t xml:space="preserve">00-00006857</t>
@@ -305,6 +305,51 @@
   </si>
   <si>
     <t xml:space="preserve">00-00010187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "Bonvida" 25%, 0,5 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonvida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00010761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "Pretto", 45%, 0,5 кг, пл/с (новый ШК)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00010894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта с ванилью "Бонджорно", 30%, 0,18 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта с манго и маракуйей "Бонджорно", 35%, 0,18 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Манго-маракуйя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта с шоколадом "Бонджорно", 30%, 0,18 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта с кокосом "Бонджорно", 35%, 0,18 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кокос</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011038</t>
   </si>
 </sst>
 </file>
@@ -314,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -349,6 +394,13 @@
       <color rgb="FF808080"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -401,7 +453,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -415,6 +467,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -435,13 +495,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T7" activeCellId="0" sqref="T7"/>
+      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.54"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -2430,6 +2493,408 @@
       </c>
       <c r="V30" s="3" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>700</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>1560</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R31" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S31" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T31" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="U31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>900</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>1560</v>
+      </c>
+      <c r="N32" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R32" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S32" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="U32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>700</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>768</v>
+      </c>
+      <c r="N33" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O33" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="P33" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R33" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S33" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="U33" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>700</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>768</v>
+      </c>
+      <c r="N34" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="P34" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R34" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S34" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T34" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="U34" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>700</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>768</v>
+      </c>
+      <c r="N35" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="P35" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R35" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S35" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T35" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="U35" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>700</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>768</v>
+      </c>
+      <c r="N36" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="P36" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R36" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S36" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T36" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="U36" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -497,8 +497,8 @@
   </sheetPr>
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T29" activeCellId="0" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1626,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="T17" s="3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U17" s="3" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U18" s="3" t="n">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>15</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U25" s="3" t="n">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>15</v>
       </c>
       <c r="T30" s="3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U30" s="3" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>15</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U31" s="3" t="n">
         <v>0</v>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="114">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -350,6 +350,18 @@
   </si>
   <si>
     <t xml:space="preserve">00-00011038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта с кокосом "Бонджорно", 30%, 0,18 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта с манго и маракуйей "Бонджорно", 30%, 0,18 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012361</t>
   </si>
 </sst>
 </file>
@@ -359,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -402,6 +414,18 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -453,7 +477,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -478,6 +502,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +527,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T29" activeCellId="0" sqref="T29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V38" activeCellId="0" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2895,6 +2927,142 @@
       </c>
       <c r="V36" s="5" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>700</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>768</v>
+      </c>
+      <c r="N37" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="P37" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R37" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S37" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T37" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="U37" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>700</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>768</v>
+      </c>
+      <c r="N38" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="P38" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R38" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S38" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T38" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="U38" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -350,18 +350,6 @@
   </si>
   <si>
     <t xml:space="preserve">00-00011038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта с кокосом "Бонджорно", 30%, 0,18 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-00012484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта с манго и маракуйей "Бонджорно", 30%, 0,18 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-00012361</t>
   </si>
 </sst>
 </file>
@@ -371,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -414,18 +402,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -477,7 +453,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -502,14 +478,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +495,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V38" activeCellId="0" sqref="V38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T29" activeCellId="0" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2927,142 +2895,6 @@
       </c>
       <c r="V36" s="5" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>700</v>
-      </c>
-      <c r="L37" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="M37" s="3" t="n">
-        <v>768</v>
-      </c>
-      <c r="N37" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="O37" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="P37" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="R37" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="S37" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="T37" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="U37" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="V37" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I38" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <v>700</v>
-      </c>
-      <c r="L38" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="M38" s="3" t="n">
-        <v>768</v>
-      </c>
-      <c r="N38" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="O38" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="P38" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="R38" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="S38" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="T38" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="U38" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="V38" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/ricotta.xlsx
+++ b/app/data/static/params/ricotta.xlsx
@@ -487,7 +487,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U37" activeCellId="0" sqref="U37"/>
+      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1639,7 +1639,7 @@
         <v>400</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>960</v>
+        <v>768</v>
       </c>
       <c r="N17" s="2" t="n">
         <v>20</v>
